--- a/data/trans_orig/Q5402-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2A7233-694D-41F9-B5FB-B1601FB8316B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B36E53-9DDF-4C02-84ED-66AD68A89E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DB141B6-7A16-4071-B2B3-221DB3553D43}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D5167E9-580A-4F3B-9557-7C799C3352BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="883">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -791,7 +791,85 @@
     <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>13,44%</t>
@@ -935,85 +1013,82 @@
     <t>84,17%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>10,59%</t>
@@ -1253,9 +1328,6 @@
     <t>3,15%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
     <t>10,04%</t>
   </si>
   <si>
@@ -1847,9 +1919,6 @@
     <t>10,89%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
     <t>17,94%</t>
   </si>
   <si>
@@ -2027,595 +2096,598 @@
     <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
   </si>
   <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
     <t>8,57%</t>
   </si>
   <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
 </sst>
 </file>
@@ -3027,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338B8E-2165-4252-8B20-21A8D8397C96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D69F7A6-EAF4-4A04-8C2C-933C22E7803B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5017,7 +5089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF48A0C-1C66-4A5B-AB38-65A3F7F31C60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909912CD-AA17-4280-BA00-A7AD9A3CFE4A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5135,43 +5207,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4890</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>250</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6404</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>11294</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,43 +5258,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6618</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9558</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N5" s="7">
+        <v>16177</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,43 +5309,49 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>32773</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="I6" s="7">
+        <v>32931</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="N6" s="7">
+        <v>65704</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,43 +5360,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,13 +5419,13 @@
         <v>10644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5338,13 +5434,13 @@
         <v>10984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>18</v>
@@ -5353,13 +5449,13 @@
         <v>21628</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,10 +5470,10 @@
         <v>7546</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>22</v>
@@ -5389,13 +5485,13 @@
         <v>10971</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -5404,13 +5500,13 @@
         <v>18518</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5521,13 @@
         <v>61013</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -5440,13 +5536,13 @@
         <v>80138</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -5455,13 +5551,13 @@
         <v>141151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5625,13 @@
         <v>8212</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5544,13 +5640,13 @@
         <v>9786</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>184</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -5562,10 +5658,10 @@
         <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5676,13 @@
         <v>5138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5595,13 +5691,13 @@
         <v>7374</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5610,10 +5706,10 @@
         <v>12512</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>97</v>
@@ -5631,13 +5727,13 @@
         <v>42391</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5646,13 +5742,13 @@
         <v>62808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -5661,13 +5757,13 @@
         <v>105200</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,49 +5825,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>12470</v>
+        <v>7581</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>17159</v>
+        <v>10754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>29629</v>
+        <v>18335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,49 +5876,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>17307</v>
+        <v>10689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>17889</v>
+        <v>8331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>35196</v>
+        <v>19020</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,49 +5927,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>78531</v>
+        <v>45758</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="H18" s="7">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="I18" s="7">
-        <v>99420</v>
+        <v>66489</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="M18" s="7">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="N18" s="7">
-        <v>177952</v>
+        <v>112247</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,10 +5978,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5897,10 +5993,10 @@
         <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5912,10 +6008,10 @@
         <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -5941,13 +6037,13 @@
         <v>3348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5956,13 +6052,13 @@
         <v>6303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -5971,13 +6067,13 @@
         <v>9651</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6088,13 @@
         <v>3358</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -6007,13 +6103,13 @@
         <v>7183</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -6022,13 +6118,13 @@
         <v>10541</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6139,13 @@
         <v>24907</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -6058,13 +6154,13 @@
         <v>36369</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6073,13 +6169,13 @@
         <v>61276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,10 +6246,10 @@
         <v>15</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6162,13 +6258,13 @@
         <v>8661</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -6180,10 +6276,10 @@
         <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6294,13 @@
         <v>7443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6213,13 +6309,13 @@
         <v>8335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -6228,13 +6324,13 @@
         <v>15777</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6345,13 @@
         <v>36800</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -6264,13 +6360,13 @@
         <v>53216</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -6279,13 +6375,13 @@
         <v>90016</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6449,13 @@
         <v>9458</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -6368,13 +6464,13 @@
         <v>10084</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6383,13 +6479,13 @@
         <v>19542</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6500,13 @@
         <v>12819</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6419,13 +6515,13 @@
         <v>15412</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -6434,13 +6530,13 @@
         <v>28231</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6551,13 @@
         <v>89986</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="H30" s="7">
         <v>106</v>
@@ -6470,13 +6566,13 @@
         <v>116466</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="M30" s="7">
         <v>187</v>
@@ -6485,13 +6581,13 @@
         <v>206453</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,10 +6658,10 @@
         <v>121</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6574,13 +6670,13 @@
         <v>12383</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>182</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -6589,13 +6685,13 @@
         <v>15687</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>404</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6706,13 @@
         <v>12128</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -6625,13 +6721,13 @@
         <v>9029</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -6640,13 +6736,13 @@
         <v>21158</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6757,13 @@
         <v>105320</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="H34" s="7">
         <v>132</v>
@@ -6676,13 +6772,13 @@
         <v>143004</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="M34" s="7">
         <v>226</v>
@@ -6691,13 +6787,13 @@
         <v>248325</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6861,13 @@
         <v>54948</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="H36" s="7">
         <v>68</v>
@@ -6780,13 +6876,13 @@
         <v>75359</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="M36" s="7">
         <v>117</v>
@@ -6795,13 +6891,13 @@
         <v>130308</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6912,13 @@
         <v>65740</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="H37" s="7">
         <v>71</v>
@@ -6831,13 +6927,13 @@
         <v>76193</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="M37" s="7">
         <v>128</v>
@@ -6846,13 +6942,13 @@
         <v>141933</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6963,13 @@
         <v>438949</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="H38" s="7">
         <v>555</v>
@@ -6882,13 +6978,13 @@
         <v>591423</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="M38" s="7">
         <v>953</v>
@@ -6897,10 +6993,10 @@
         <v>1030372</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>58</v>
@@ -6983,7 +7079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E042E6-21B8-4A30-A668-751C3F96E08C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B86A791-B7FD-4371-A1FE-FC22F490595F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7000,7 +7096,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7107,13 +7203,13 @@
         <v>3233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -7125,10 +7221,10 @@
         <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -7137,13 +7233,13 @@
         <v>6485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7254,13 @@
         <v>4972</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -7173,13 +7269,13 @@
         <v>8332</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -7188,13 +7284,13 @@
         <v>13304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7305,13 @@
         <v>30691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>139</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -7224,13 +7320,13 @@
         <v>37807</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="M6" s="7">
         <v>66</v>
@@ -7239,13 +7335,13 @@
         <v>68498</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7409,13 @@
         <v>2102</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -7328,7 +7424,7 @@
         <v>6724</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>45</v>
@@ -7343,13 +7439,13 @@
         <v>8826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7460,13 @@
         <v>8729</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7379,13 +7475,13 @@
         <v>8563</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -7394,13 +7490,13 @@
         <v>17292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7511,13 @@
         <v>76464</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -7430,13 +7526,13 @@
         <v>99941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -7445,13 +7541,13 @@
         <v>176405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7615,13 @@
         <v>2120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7534,13 +7630,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>201</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -7549,13 +7645,13 @@
         <v>6598</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7666,13 @@
         <v>4627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7591,7 +7687,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7600,13 +7696,13 @@
         <v>5860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7717,13 @@
         <v>56799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -7636,13 +7732,13 @@
         <v>74186</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="M14" s="7">
         <v>129</v>
@@ -7651,13 +7747,13 @@
         <v>130985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7821,13 @@
         <v>6693</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -7740,13 +7836,13 @@
         <v>5996</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -7755,13 +7851,13 @@
         <v>12688</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,13 +7872,13 @@
         <v>5532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -7791,13 +7887,13 @@
         <v>7055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -7806,13 +7902,13 @@
         <v>12587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,13 +7923,13 @@
         <v>52487</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -7842,13 +7938,13 @@
         <v>78523</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="M18" s="7">
         <v>124</v>
@@ -7857,13 +7953,13 @@
         <v>131009</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,10 +8030,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -7946,13 +8042,13 @@
         <v>3426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -7961,13 +8057,13 @@
         <v>3426</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7982,13 +8078,13 @@
         <v>4118</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -7997,13 +8093,13 @@
         <v>12615</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -8012,13 +8108,13 @@
         <v>16733</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8129,13 @@
         <v>37962</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -8048,13 +8144,13 @@
         <v>34491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -8063,13 +8159,13 @@
         <v>72454</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8233,13 @@
         <v>10019</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -8152,13 +8248,13 @@
         <v>11589</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -8167,13 +8263,13 @@
         <v>21608</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,13 +8284,13 @@
         <v>2496</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8203,13 +8299,13 @@
         <v>1259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -8218,13 +8314,13 @@
         <v>3755</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,13 +8335,13 @@
         <v>35931</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -8254,13 +8350,13 @@
         <v>54539</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -8269,13 +8365,13 @@
         <v>90470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8439,13 @@
         <v>6441</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -8358,13 +8454,13 @@
         <v>8672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -8373,13 +8469,13 @@
         <v>15114</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8490,13 @@
         <v>11525</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -8409,13 +8505,13 @@
         <v>16070</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>602</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -8424,13 +8520,13 @@
         <v>27595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,13 +8541,13 @@
         <v>94219</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="H30" s="7">
         <v>105</v>
@@ -8460,13 +8556,13 @@
         <v>122882</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="M30" s="7">
         <v>195</v>
@@ -8475,13 +8571,13 @@
         <v>217101</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8549,13 +8645,13 @@
         <v>4742</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -8564,13 +8660,13 @@
         <v>5355</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>172</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -8579,13 +8675,13 @@
         <v>10097</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,13 +8696,13 @@
         <v>5782</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -8615,13 +8711,13 @@
         <v>16011</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="M33" s="7">
         <v>18</v>
@@ -8630,13 +8726,13 @@
         <v>21793</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,13 +8747,13 @@
         <v>123644</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="H34" s="7">
         <v>126</v>
@@ -8666,13 +8762,13 @@
         <v>154931</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="M34" s="7">
         <v>256</v>
@@ -8681,13 +8777,13 @@
         <v>278575</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,13 +8851,13 @@
         <v>35351</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -8770,13 +8866,13 @@
         <v>49491</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="M36" s="7">
         <v>77</v>
@@ -8785,13 +8881,13 @@
         <v>84842</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,13 +8902,13 @@
         <v>47779</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="H37" s="7">
         <v>55</v>
@@ -8821,13 +8917,13 @@
         <v>71140</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="M37" s="7">
         <v>109</v>
@@ -8836,13 +8932,13 @@
         <v>118919</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,13 +8953,13 @@
         <v>508198</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="H38" s="7">
         <v>563</v>
@@ -8872,13 +8968,13 @@
         <v>657300</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="M38" s="7">
         <v>1096</v>
@@ -8887,13 +8983,13 @@
         <v>1165498</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8973,7 +9069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAF2C73-E48F-4B5E-98F6-222D9965613B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D52F63-465D-4CCF-AE47-1DD7AA118D86}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8990,7 +9086,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9094,46 +9190,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>4450</v>
+        <v>4753</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>569</v>
+        <v>687</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>5912</v>
+        <v>5922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>665</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>10362</v>
+        <v>10675</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9145,46 +9241,46 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>10381</v>
+        <v>11059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>667</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>8099</v>
+        <v>8176</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>18480</v>
+        <v>19236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>431</v>
+        <v>697</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9196,46 +9292,46 @@
         <v>61</v>
       </c>
       <c r="D6" s="7">
-        <v>37089</v>
+        <v>40089</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>675</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>676</v>
+        <v>699</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
       </c>
       <c r="I6" s="7">
-        <v>48209</v>
+        <v>49310</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>678</v>
+        <v>701</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="M6" s="7">
         <v>166</v>
       </c>
       <c r="N6" s="7">
-        <v>85298</v>
+        <v>89399</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>682</v>
+        <v>705</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9247,7 +9343,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -9262,7 +9358,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -9277,7 +9373,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -9300,46 +9396,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5505</v>
+        <v>5121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>684</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>707</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>685</v>
+        <v>708</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>17410</v>
+        <v>15337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>616</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>22915</v>
+        <v>20458</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9351,46 +9447,46 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>5744</v>
+        <v>5292</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>691</v>
+        <v>238</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>692</v>
+        <v>101</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
       </c>
       <c r="I9" s="7">
-        <v>14072</v>
+        <v>12849</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>19815</v>
+        <v>18140</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>475</v>
+        <v>719</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>698</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9402,46 +9498,46 @@
         <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>74109</v>
+        <v>69437</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>699</v>
+        <v>720</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>721</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="H10" s="7">
         <v>176</v>
       </c>
       <c r="I10" s="7">
-        <v>109876</v>
+        <v>100806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>724</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>511</v>
+        <v>725</v>
       </c>
       <c r="M10" s="7">
         <v>258</v>
       </c>
       <c r="N10" s="7">
-        <v>183984</v>
+        <v>170244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>726</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9453,7 +9549,7 @@
         <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>85358</v>
+        <v>79850</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -9468,7 +9564,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -9483,7 +9579,7 @@
         <v>317</v>
       </c>
       <c r="N11" s="7">
-        <v>226715</v>
+        <v>208842</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -9506,46 +9602,46 @@
         <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>13925</v>
+        <v>13084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>603</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>705</v>
+        <v>730</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>14997</v>
+        <v>13595</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>707</v>
+        <v>732</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
       </c>
       <c r="N12" s="7">
-        <v>28922</v>
+        <v>26679</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>46</v>
+        <v>735</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9557,46 +9653,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>7583</v>
+        <v>7091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>597</v>
+        <v>737</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>711</v>
+        <v>598</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>10589</v>
+        <v>9584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>18173</v>
+        <v>16675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>717</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,46 +9704,46 @@
         <v>88</v>
       </c>
       <c r="D14" s="7">
-        <v>56093</v>
+        <v>53314</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>719</v>
+        <v>744</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>720</v>
+        <v>745</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="H14" s="7">
         <v>124</v>
       </c>
       <c r="I14" s="7">
-        <v>69365</v>
+        <v>64247</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="M14" s="7">
         <v>212</v>
       </c>
       <c r="N14" s="7">
-        <v>125458</v>
+        <v>117561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9659,7 +9755,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -9674,7 +9770,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -9689,7 +9785,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -9712,46 +9808,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>4006</v>
+        <v>3776</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>728</v>
+        <v>753</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>7693</v>
+        <v>7206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>628</v>
+        <v>756</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>11699</v>
+        <v>10982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>734</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9763,46 +9859,46 @@
         <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>11698</v>
+        <v>11010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>735</v>
+        <v>760</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>697</v>
+        <v>761</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>13534</v>
+        <v>12616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>739</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>25232</v>
+        <v>23626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>499</v>
+        <v>766</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>741</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9814,46 +9910,46 @@
         <v>94</v>
       </c>
       <c r="D18" s="7">
-        <v>63101</v>
+        <v>59882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>744</v>
+        <v>769</v>
       </c>
       <c r="H18" s="7">
         <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>89228</v>
+        <v>83814</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>745</v>
+        <v>770</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>771</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>746</v>
+        <v>137</v>
       </c>
       <c r="M18" s="7">
         <v>301</v>
       </c>
       <c r="N18" s="7">
-        <v>152330</v>
+        <v>143695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>747</v>
+        <v>772</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>748</v>
+        <v>773</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9865,7 +9961,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -9880,7 +9976,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -9895,7 +9991,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -9918,46 +10014,46 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>2829</v>
+        <v>2548</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>750</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2149</v>
+        <v>1851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>753</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>4978</v>
+        <v>4399</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>755</v>
+        <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9969,46 +10065,46 @@
         <v>11</v>
       </c>
       <c r="D21" s="7">
-        <v>6076</v>
+        <v>5476</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
+        <v>780</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>738</v>
+        <v>507</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>758</v>
+        <v>781</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>13338</v>
+        <v>12004</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
       </c>
       <c r="N21" s="7">
-        <v>19414</v>
+        <v>17480</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>761</v>
+        <v>784</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10020,46 +10116,46 @@
         <v>55</v>
       </c>
       <c r="D22" s="7">
-        <v>29426</v>
+        <v>26792</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
       </c>
       <c r="I22" s="7">
-        <v>49993</v>
+        <v>45391</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>767</v>
+        <v>790</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="M22" s="7">
         <v>183</v>
       </c>
       <c r="N22" s="7">
-        <v>79420</v>
+        <v>72182</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>772</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10071,7 +10167,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -10086,7 +10182,7 @@
         <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -10101,7 +10197,7 @@
         <v>236</v>
       </c>
       <c r="N23" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -10124,46 +10220,46 @@
         <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>11787</v>
+        <v>11234</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>773</v>
+        <v>796</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>774</v>
+        <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
       </c>
       <c r="I24" s="7">
-        <v>14178</v>
+        <v>13239</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>695</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="M24" s="7">
         <v>66</v>
       </c>
       <c r="N24" s="7">
-        <v>25965</v>
+        <v>24474</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10175,46 +10271,46 @@
         <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>7834</v>
+        <v>7488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>780</v>
+        <v>735</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>9663</v>
+        <v>9121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>804</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
       </c>
       <c r="N25" s="7">
-        <v>17497</v>
+        <v>16609</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10226,46 +10322,46 @@
         <v>91</v>
       </c>
       <c r="D26" s="7">
-        <v>43562</v>
+        <v>41539</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>812</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
       </c>
       <c r="I26" s="7">
-        <v>46012</v>
+        <v>42898</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>791</v>
+        <v>814</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>792</v>
+        <v>815</v>
       </c>
       <c r="M26" s="7">
         <v>201</v>
       </c>
       <c r="N26" s="7">
-        <v>89575</v>
+        <v>84437</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>794</v>
+        <v>817</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>795</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10277,7 +10373,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -10292,7 +10388,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -10307,7 +10403,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -10330,46 +10426,46 @@
         <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>3897</v>
+        <v>3732</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>663</v>
+        <v>819</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>754</v>
+        <v>820</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>604</v>
+        <v>755</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
       </c>
       <c r="I28" s="7">
-        <v>16342</v>
+        <v>13788</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>796</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
       </c>
       <c r="N28" s="7">
-        <v>20239</v>
+        <v>17520</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10381,46 +10477,46 @@
         <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>7639</v>
+        <v>7081</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
       </c>
       <c r="I29" s="7">
-        <v>12853</v>
+        <v>11756</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>805</v>
+        <v>829</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="M29" s="7">
         <v>32</v>
       </c>
       <c r="N29" s="7">
-        <v>20492</v>
+        <v>18836</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>807</v>
+        <v>553</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10432,46 +10528,46 @@
         <v>153</v>
       </c>
       <c r="D30" s="7">
-        <v>118548</v>
+        <v>111726</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="H30" s="7">
         <v>198</v>
       </c>
       <c r="I30" s="7">
-        <v>229649</v>
+        <v>313638</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="M30" s="7">
         <v>351</v>
       </c>
       <c r="N30" s="7">
-        <v>348197</v>
+        <v>425363</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10483,7 +10579,7 @@
         <v>167</v>
       </c>
       <c r="D31" s="7">
-        <v>130085</v>
+        <v>122539</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>39</v>
@@ -10498,7 +10594,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>39</v>
@@ -10513,7 +10609,7 @@
         <v>409</v>
       </c>
       <c r="N31" s="7">
-        <v>388928</v>
+        <v>461720</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -10536,46 +10632,46 @@
         <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>5085</v>
+        <v>4383</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>663</v>
+        <v>842</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>602</v>
+        <v>357</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>4956</v>
+        <v>4061</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>820</v>
+        <v>567</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
       </c>
       <c r="N32" s="7">
-        <v>10041</v>
+        <v>8445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>529</v>
+        <v>847</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10587,46 +10683,46 @@
         <v>14</v>
       </c>
       <c r="D33" s="7">
-        <v>10437</v>
+        <v>8829</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>107</v>
+        <v>848</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>596</v>
+        <v>849</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>824</v>
+        <v>850</v>
       </c>
       <c r="H33" s="7">
         <v>50</v>
       </c>
       <c r="I33" s="7">
-        <v>34784</v>
+        <v>27942</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>145</v>
+        <v>852</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>826</v>
+        <v>340</v>
       </c>
       <c r="M33" s="7">
         <v>64</v>
       </c>
       <c r="N33" s="7">
-        <v>45220</v>
+        <v>36771</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>827</v>
+        <v>250</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10638,46 +10734,46 @@
         <v>212</v>
       </c>
       <c r="D34" s="7">
-        <v>153712</v>
+        <v>133262</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
       <c r="H34" s="7">
         <v>286</v>
       </c>
       <c r="I34" s="7">
-        <v>183304</v>
+        <v>154639</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="M34" s="7">
         <v>498</v>
       </c>
       <c r="N34" s="7">
-        <v>337016</v>
+        <v>287901</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10689,7 +10785,7 @@
         <v>234</v>
       </c>
       <c r="D35" s="7">
-        <v>169234</v>
+        <v>146475</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>39</v>
@@ -10704,7 +10800,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>39</v>
@@ -10719,7 +10815,7 @@
         <v>577</v>
       </c>
       <c r="N35" s="7">
-        <v>392277</v>
+        <v>333117</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>39</v>
@@ -10742,46 +10838,46 @@
         <v>86</v>
       </c>
       <c r="D36" s="7">
-        <v>51485</v>
+        <v>48633</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>839</v>
+        <v>864</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>840</v>
+        <v>292</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="H36" s="7">
         <v>150</v>
       </c>
       <c r="I36" s="7">
-        <v>83635</v>
+        <v>74999</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="M36" s="7">
         <v>236</v>
       </c>
       <c r="N36" s="7">
-        <v>135121</v>
+        <v>123631</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>671</v>
+        <v>478</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>796</v>
+        <v>868</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10793,46 +10889,46 @@
         <v>102</v>
       </c>
       <c r="D37" s="7">
-        <v>67392</v>
+        <v>63326</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>783</v>
+        <v>621</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>650</v>
+        <v>456</v>
       </c>
       <c r="H37" s="7">
         <v>223</v>
       </c>
       <c r="I37" s="7">
-        <v>116931</v>
+        <v>104047</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>846</v>
+        <v>523</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>847</v>
+        <v>499</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="M37" s="7">
         <v>325</v>
       </c>
       <c r="N37" s="7">
-        <v>184323</v>
+        <v>167373</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>49</v>
+        <v>872</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10844,46 +10940,46 @@
         <v>836</v>
       </c>
       <c r="D38" s="7">
-        <v>575640</v>
+        <v>536041</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>851</v>
+        <v>469</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>852</v>
+        <v>875</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="H38" s="7">
         <v>1334</v>
       </c>
       <c r="I38" s="7">
-        <v>825636</v>
+        <v>854743</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="M38" s="7">
         <v>2170</v>
       </c>
       <c r="N38" s="7">
-        <v>1401276</v>
+        <v>1390784</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>366</v>
+        <v>880</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10895,7 +10991,7 @@
         <v>1024</v>
       </c>
       <c r="D39" s="7">
-        <v>694517</v>
+        <v>648000</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>39</v>
@@ -10910,7 +11006,7 @@
         <v>1707</v>
       </c>
       <c r="I39" s="7">
-        <v>1026202</v>
+        <v>1033789</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>39</v>
@@ -10925,7 +11021,7 @@
         <v>2731</v>
       </c>
       <c r="N39" s="7">
-        <v>1720720</v>
+        <v>1681789</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>39</v>
